--- a/application/templates/inboundprotocoll2.xlsx
+++ b/application/templates/inboundprotocoll2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Wareneingangsprotokoll</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Paletten</t>
+  </si>
+  <si>
+    <t>Ursprung</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,21 +585,26 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/application/templates/inboundprotocoll2.xlsx
+++ b/application/templates/inboundprotocoll2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Wareneingangsprotokoll</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Ursprung</t>
+  </si>
+  <si>
+    <t>Einheiten geprüft:</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +634,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.24166666666666667" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
